--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -473,7 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP_CORE】
+    <t>【JP-Core仕様】
 IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
@@ -517,8 +517,8 @@
 この医療従事者の記録がアクティブに使用されているかどうかを示す。</t>
   </si>
   <si>
-    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitonerRole with an end date (even if they are active) as they may be active in another role.
-医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitonerRoleに有効期間を終了日でマークしておく必要がある。</t>
+    <t>If the practitioner is not in use by one organization, then it should mark the period on the PractitionerRole with an end date (even if they are active) as they may be active in another role.
+医療従事者がある組織で使用されていない場合、別のロールでアクティブになっている可能性があるので、(例えそれらがアクティブであっても)PractitionerRoleに有効期間を終了日でマークしておく必要がある。</t>
   </si>
   <si>
     <t>Need to be able to mark a practitioner record as not to be used because it was created in error.
@@ -1194,7 +1194,7 @@
     <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング</t>
   </si>
   <si>
-    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certian locality.
+    <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certain locality.
 医療従事者によるケアの提供を認可する、あるいは関連する、公式の証明書、トレーニング、免許証等。
 例えば、医療委員会が発行した医師免許証は、認定された地域内で医療を行うことを開業医に許可するものである。</t>
   </si>
@@ -1330,7 +1330,7 @@
 資格を規制し、発行する機関</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は実際のFHIRリソースへの参照でなければならず、解決可能でなければならない。解決は URL からの検索、またはリソースタイプによって、絶対参照を正規の URL として扱い、ローカルのレジストリ/リポジトリで検索することで行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -473,8 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】
-IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
+    <t>【JP-Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
@@ -1520,13 +1519,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenceCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenceCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -2325,7 +2324,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -473,7 +473,7 @@
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP-Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
 医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -1199,7 +1199,7 @@
   </si>
   <si>
     <t>麻薬施用者免許番号、または医籍登録番号を格納するためのQualification/Slicing定義。
-s麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
+麻薬施用者免許番号の場合のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.32.1[都道府県番号] を使用する。
 ( 頭に1をつけて末尾3桁で表現する。これは北海道などの場合、都道府県番号は01になるが、OID
 では先頭が0は許可されていないため、頭に1をつけて3桁で表現する)
 つまり麻薬施用者免許番号を発行した都道府県ごとにsystemも異なる値となる。

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent</t>
+    <t>An identifier for the person as this agent 【詳細参照】</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
@@ -475,15 +475,15 @@
   <si>
     <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
 Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
-を使用する。
-医療機関識別OID番号は、医師IDの発行者である医療機関を識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
+医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
+医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
 医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
 例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
-なお、rn:oid:1.2.392.100495.20.3.41　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において医師番号に割り当てられたOIDのURL型である。
+なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値は今後検討する。</t>
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the practitioner (that apply to all roles)　電話番号やメールアドレスなど、従事者への詳細な連絡先。</t>
+    <t>A contact detail for the practitioner (that apply to all roles)　電話番号やメールアドレスなど、従事者への詳細な連絡先</t>
   </si>
   <si>
     <t>A contact detail for the practitioner, e.g. a telephone number or an email address.
@@ -781,7 +781,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 期間は時間の範囲を指定する。使用状況は、範囲全体が適用されるか（たとえば、「患者はこの時間範囲で入院していた」）、範囲から1つの値が適用されるか（たとえば、「この2回の間に患者に与える」）を指定する。
 期間は、時間間隔（経過時間の測定値）には使用されない。 [Duration]（datatypes.html＃Duration）を参照のこと。</t>
   </si>
@@ -1194,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング</t>
+    <t>Certification, licenses, or training pertaining to the provision of care　ケアの提供に関連する認定、ライセンス、またはトレーニング 【詳細参照】</t>
   </si>
   <si>
     <t>The official certifications, training, and licenses that authorize or otherwise pertain to the provision of care by the practitioner.  For example, a medical license issued by a medical board authorizing the practitioner to practice medicine within a certain locality.
@@ -1304,9 +1304,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 使用のコンテキストは、範囲全体が適用されるか（例：「患者はこの時間範囲で病院の入院患者であった」）、範囲内の1つの値が適用されるか（例：「この2つの時間の間に患者に与える」）を指定する。
-期間は、期間(経過時間の尺度)には使用されない。[Duration](datatypes.html#Duration)を参照のこと。</t>
+期間は、期間(経過時間の尺度)には使用されない。[Duration](http://hl7.org/fhir/R4/datatypes.html#Duration)を参照のこと。</t>
   </si>
   <si>
     <t>Qualifications are often for a limited period of time, and can be revoked.
@@ -1505,10 +1505,13 @@
     <t>Practitioner.qualification.identifier.value</t>
   </si>
   <si>
+    <t>都道府県別　麻薬施用者免許番号 【詳細参照】</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
     <t>都道府県別　麻薬施用者免許番号</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
     <t>123456</t>
@@ -1574,13 +1577,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="narcotics-practitioner"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicalLicenseCertificate_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalLicenseCertificate_VS</t>
   </si>
   <si>
     <t>Period during which the qualification is valid.</t>
@@ -1612,7 +1615,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicalLicenseCertificate_CS"/&gt;
     &lt;code value="medical-registration"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1621,7 +1624,7 @@
     <t>Practitioner.communication</t>
   </si>
   <si>
-    <t>A language the practitioner can use in patient communication　医療従事者が患者とのコミュニケーションで使用できる言語。</t>
+    <t>A language the practitioner can use in patient communication　医療従事者が患者とのコミュニケーションで使用できる言語</t>
   </si>
   <si>
     <t>A language the practitioner can use in patient communication.
@@ -1982,7 +1985,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.75390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -8158,7 +8161,7 @@
         <v>444</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8172,7 +8175,7 @@
         <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>76</v>
@@ -8208,7 +8211,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8226,10 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>212</v>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8263,10 +8266,10 @@
         <v>231</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8317,7 +8320,7 @@
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8332,10 +8335,10 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>237</v>
@@ -8346,7 +8349,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8369,16 +8372,16 @@
         <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8428,7 +8431,7 @@
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8443,13 +8446,13 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>76</v>
@@ -8486,7 +8489,7 @@
         <v>384</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8498,7 +8501,7 @@
         <v>76</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>76</v>
@@ -8517,7 +8520,7 @@
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>76</v>
@@ -8593,11 +8596,11 @@
         <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>76</v>
@@ -8698,13 +8701,13 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8787,7 +8790,7 @@
         <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>76</v>
@@ -9254,7 +9257,7 @@
         <v>144</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>409</v>
@@ -9811,13 +9814,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>436</v>
@@ -9827,7 +9830,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>76</v>
@@ -9924,13 +9927,13 @@
         <v>182</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>444</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9944,7 +9947,7 @@
         <v>76</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>76</v>
@@ -9980,7 +9983,7 @@
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9995,10 +9998,10 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>212</v>
@@ -10009,7 +10012,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10035,10 +10038,10 @@
         <v>231</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10089,7 +10092,7 @@
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10104,10 +10107,10 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>237</v>
@@ -10118,7 +10121,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10141,16 +10144,16 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10200,7 +10203,7 @@
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10215,13 +10218,13 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>76</v>
@@ -10258,7 +10261,7 @@
         <v>384</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10270,7 +10273,7 @@
         <v>76</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>76</v>
@@ -10289,7 +10292,7 @@
       </c>
       <c r="X75" s="2"/>
       <c r="Y75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>76</v>
@@ -10365,11 +10368,11 @@
         <v>392</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>76</v>
@@ -10470,13 +10473,13 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>400</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10556,7 +10559,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10582,16 +10585,16 @@
         <v>383</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10640,7 +10643,7 @@
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -10655,13 +10658,13 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -466,23 +466,22 @@
 </t>
   </si>
   <si>
-    <t>An identifier for the person as this agent 【詳細参照】</t>
+    <t>An identifier for the person as this agent Practitionerリソースに対する識別子【詳細参照】</t>
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
 ある役割の人に適用される識別子。</t>
   </si>
   <si>
-    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。
-Practitioner.identifier.systemには、
-医師の場合、　urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
-歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号を使用する。  
-医師IDの発行者である医療機関を識別する「医療機関コード」については、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。医療機関識別OID番号については、医療機関コード10桁の先頭に１をつけた11桁とする。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
-例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」
-なお、rn:oid:1.2.392.100495.20.3.41　の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。
-地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。
-医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/職員ID」などの識別コードを入れること。
+    <t>【JP Core仕様】IDの名前空間を表す Practitioner.identifier.systemと ID値そのものを表す Practitioner.identifier.value の組み合わせとして表現する。  
+Practitioner.identifier.systemは以下の割り当てる。
+- 医師の場合 : urn:oid:1.2.392.100495.20.3.41.医療機関識別OID番号  
+- 歯科医師の場合、urn:oid:1.2.392.100495.20.3.42.医療機関識別OID番号
+医療機関識別OID番号は患者IDの発行者である施設を識別するものであり、医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+例：医療機関コード「1312345670」での医師の場合「urn:oid:1.2.392.100495.20.3.41.11312345670」  
+なお、rn:oid:1.2.392.100495.20.3.41 の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において処方医 IDに割り当てられたOIDのURL型である。  
+地域医療連携ネットワークの地域医療従事者IDを指定する場合も同様に、地域医療従事者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。  
+医師、歯科医師以外の医療者のIDの名前空間を表す system 値はまだ未定のため、空白もしくは「ドメイン名/PractitionerのSystem発行キー」などの識別コードを入れること。  
 例：http://www.abd-hospital.co.jp/practitioner-system</t>
   </si>
   <si>
@@ -1434,7 +1433,7 @@
   </si>
   <si>
     <t>麻薬施用者免許番号OIDを格納。OIDは右記のルールに従う。urn:oid:1.2.392.100495.20.3.32.[1(固定)+都道府県番号(２桁)]。  
-都道府県毎のOIDを以下に示す。
+都道府県毎のOIDを以下に示す。  
 - urn:oid:1.2.392.100495.20.3.32.101(北海道)
 - urn:oid:1.2.392.100495.20.3.32.102(青森県)
 - urn:oid:1.2.392.100495.20.3.32.103(岩手県)

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.
 医療の提供に直接または間接的に関与する者をいう。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1893,55 +1892,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2003,218 +2002,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -2226,7 +2225,7 @@
         <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2235,20 +2234,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2267,77 +2266,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2346,20 +2345,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2376,77 +2375,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -2455,17 +2454,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2487,77 +2486,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2566,23 +2565,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2598,26 +2597,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2629,46 +2628,46 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2681,19 +2680,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2709,77 +2708,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2791,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2820,77 +2819,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2903,19 +2902,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -2931,77 +2930,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -3014,19 +3013,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>132</v>
@@ -3044,77 +3043,77 @@
         <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -3123,20 +3122,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>87</v>
@@ -3157,62 +3156,62 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>98</v>
@@ -3236,20 +3235,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -3270,76 +3269,76 @@
         <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>159</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>161</v>
@@ -3351,23 +3350,23 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>163</v>
@@ -3385,59 +3384,59 @@
         <v>167</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>168</v>
@@ -3455,7 +3454,7 @@
         <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3464,20 +3463,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>87</v>
@@ -3498,62 +3497,62 @@
         <v>177</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
@@ -3568,7 +3567,7 @@
         <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -3577,23 +3576,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>182</v>
@@ -3607,77 +3606,77 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3690,19 +3689,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>132</v>
@@ -3718,38 +3717,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>189</v>
@@ -3758,7 +3757,7 @@
         <v>190</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>191</v>
@@ -3767,28 +3766,28 @@
         <v>192</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3797,20 +3796,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3827,26 +3826,26 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>196</v>
@@ -3858,25 +3857,25 @@
         <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>199</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3897,7 +3896,7 @@
         <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3906,20 +3905,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3940,62 +3939,62 @@
         <v>208</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
@@ -4010,7 +4009,7 @@
         <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -4019,17 +4018,17 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>87</v>
@@ -4053,26 +4052,26 @@
         <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>196</v>
@@ -4084,31 +4083,31 @@
         <v>219</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
@@ -4123,7 +4122,7 @@
         <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -4132,20 +4131,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4164,62 +4163,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
@@ -4231,10 +4230,10 @@
         <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -4243,20 +4242,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4275,62 +4274,62 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -4345,7 +4344,7 @@
         <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -4354,20 +4353,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
@@ -4388,62 +4387,62 @@
         <v>243</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>238</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4458,7 +4457,7 @@
         <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4467,23 +4466,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>182</v>
@@ -4497,77 +4496,77 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4580,19 +4579,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>132</v>
@@ -4608,38 +4607,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>189</v>
@@ -4648,7 +4647,7 @@
         <v>190</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>191</v>
@@ -4657,28 +4656,28 @@
         <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4687,17 +4686,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4721,26 +4720,26 @@
         <v>253</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>254</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>196</v>
@@ -4752,31 +4751,31 @@
         <v>256</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
@@ -4791,7 +4790,7 @@
         <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4800,20 +4799,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4832,26 +4831,26 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>264</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>196</v>
@@ -4863,31 +4862,31 @@
         <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>267</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
@@ -4899,10 +4898,10 @@
         <v>222</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4911,20 +4910,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4945,62 +4944,62 @@
         <v>273</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>274</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -5012,10 +5011,10 @@
         <v>277</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -5024,20 +5023,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -5054,62 +5053,62 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>281</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5124,7 +5123,7 @@
         <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -5137,16 +5136,16 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5163,62 +5162,62 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>290</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>291</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
@@ -5233,7 +5232,7 @@
         <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -5246,16 +5245,16 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5274,62 +5273,62 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>300</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
@@ -5341,10 +5340,10 @@
         <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -5357,16 +5356,16 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>87</v>
@@ -5383,62 +5382,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>308</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5453,7 +5452,7 @@
         <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -5466,16 +5465,16 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>87</v>
@@ -5492,62 +5491,62 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>316</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5562,7 +5561,7 @@
         <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -5571,20 +5570,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>87</v>
@@ -5603,62 +5602,62 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5673,7 +5672,7 @@
         <v>328</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5682,20 +5681,20 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>87</v>
@@ -5716,62 +5715,62 @@
         <v>332</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>333</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
@@ -5786,7 +5785,7 @@
         <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5795,20 +5794,20 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5827,26 +5826,26 @@
         <v>339</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>196</v>
@@ -5858,31 +5857,31 @@
         <v>341</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5897,7 +5896,7 @@
         <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5906,20 +5905,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5938,62 +5937,62 @@
         <v>349</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
@@ -6008,7 +6007,7 @@
         <v>352</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -6017,23 +6016,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>354</v>
@@ -6051,68 +6050,68 @@
         <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>359</v>
@@ -6121,7 +6120,7 @@
         <v>360</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -6130,23 +6129,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>362</v>
@@ -6162,45 +6161,45 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>191</v>
@@ -6209,13 +6208,13 @@
         <v>361</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6230,7 +6229,7 @@
         <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -6239,23 +6238,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>182</v>
@@ -6269,77 +6268,77 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -6352,19 +6351,19 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>132</v>
@@ -6380,77 +6379,77 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6463,13 +6462,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>87</v>
@@ -6493,77 +6492,77 @@
         <v>141</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -6572,23 +6571,23 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>144</v>
@@ -6604,77 +6603,77 @@
         <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -6683,7 +6682,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6693,13 +6692,13 @@
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>383</v>
@@ -6715,26 +6714,26 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>387</v>
@@ -6746,19 +6745,19 @@
         <v>389</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>382</v>
@@ -6770,13 +6769,13 @@
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>368</v>
@@ -6785,7 +6784,7 @@
         <v>390</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6794,23 +6793,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>231</v>
@@ -6828,68 +6827,68 @@
         <v>395</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>396</v>
@@ -6898,7 +6897,7 @@
         <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6907,23 +6906,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>399</v>
@@ -6939,77 +6938,77 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -7020,23 +7019,23 @@
         <v>404</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>405</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>362</v>
@@ -7050,62 +7049,62 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7120,7 +7119,7 @@
         <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -7129,23 +7128,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>182</v>
@@ -7159,77 +7158,77 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -7242,19 +7241,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>132</v>
@@ -7270,77 +7269,77 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -7353,13 +7352,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>87</v>
@@ -7383,77 +7382,77 @@
         <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -7462,23 +7461,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>144</v>
@@ -7494,77 +7493,77 @@
         <v>410</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7573,23 +7572,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>182</v>
@@ -7603,77 +7602,77 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7686,19 +7685,19 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>132</v>
@@ -7714,38 +7713,38 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>189</v>
@@ -7754,7 +7753,7 @@
         <v>190</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>191</v>
@@ -7763,28 +7762,28 @@
         <v>192</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7793,17 +7792,17 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>87</v>
@@ -7827,26 +7826,26 @@
         <v>417</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
         <v>196</v>
@@ -7858,31 +7857,31 @@
         <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
@@ -7894,10 +7893,10 @@
         <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -7906,20 +7905,20 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>87</v>
@@ -7940,26 +7939,26 @@
         <v>426</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
         <v>427</v>
@@ -7971,31 +7970,31 @@
         <v>429</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -8007,10 +8006,10 @@
         <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -8019,20 +8018,20 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>87</v>
@@ -8053,62 +8052,62 @@
         <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>437</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
@@ -8123,7 +8122,7 @@
         <v>441</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -8132,20 +8131,20 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>87</v>
@@ -8164,62 +8163,62 @@
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>446</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
@@ -8234,7 +8233,7 @@
         <v>212</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -8243,20 +8242,20 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
@@ -8273,62 +8272,62 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
@@ -8343,7 +8342,7 @@
         <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
@@ -8352,20 +8351,20 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>87</v>
@@ -8384,62 +8383,62 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>98</v>
@@ -8454,7 +8453,7 @@
         <v>464</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
@@ -8463,7 +8462,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8473,13 +8472,13 @@
         <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>383</v>
@@ -8493,26 +8492,26 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>466</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
         <v>196</v>
@@ -8522,19 +8521,19 @@
         <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>382</v>
@@ -8546,13 +8545,13 @@
         <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>368</v>
@@ -8561,7 +8560,7 @@
         <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
@@ -8570,23 +8569,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>231</v>
@@ -8602,68 +8601,68 @@
         <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>396</v>
@@ -8672,7 +8671,7 @@
         <v>397</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
@@ -8681,23 +8680,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>457</v>
@@ -8711,77 +8710,77 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -8792,23 +8791,23 @@
         <v>471</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>362</v>
@@ -8822,62 +8821,62 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
@@ -8892,7 +8891,7 @@
         <v>369</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
@@ -8901,23 +8900,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>182</v>
@@ -8931,77 +8930,77 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
@@ -9014,19 +9013,19 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>132</v>
@@ -9042,77 +9041,77 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>192</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
@@ -9125,13 +9124,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>87</v>
@@ -9155,77 +9154,77 @@
         <v>141</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -9234,23 +9233,23 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>144</v>
@@ -9266,77 +9265,77 @@
         <v>410</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
@@ -9345,23 +9344,23 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>182</v>
@@ -9375,77 +9374,77 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
@@ -9458,19 +9457,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>132</v>
@@ -9486,38 +9485,38 @@
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>189</v>
@@ -9526,7 +9525,7 @@
         <v>190</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>191</v>
@@ -9535,28 +9534,28 @@
         <v>192</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69">
@@ -9565,17 +9564,17 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>87</v>
@@ -9599,26 +9598,26 @@
         <v>417</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
         <v>196</v>
@@ -9630,31 +9629,31 @@
         <v>419</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>420</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -9666,10 +9665,10 @@
         <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -9678,20 +9677,20 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>87</v>
@@ -9712,26 +9711,26 @@
         <v>426</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
         <v>427</v>
@@ -9743,31 +9742,31 @@
         <v>429</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9779,10 +9778,10 @@
         <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
@@ -9791,20 +9790,20 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>87</v>
@@ -9825,62 +9824,62 @@
         <v>436</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>476</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>437</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>438</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
@@ -9895,7 +9894,7 @@
         <v>441</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
@@ -9904,20 +9903,20 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>87</v>
@@ -9936,62 +9935,62 @@
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>446</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
@@ -10006,7 +10005,7 @@
         <v>212</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -10015,20 +10014,20 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>87</v>
@@ -10045,62 +10044,62 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>453</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>98</v>
@@ -10115,7 +10114,7 @@
         <v>237</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
@@ -10124,20 +10123,20 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>87</v>
@@ -10156,62 +10155,62 @@
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>461</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>98</v>
@@ -10226,7 +10225,7 @@
         <v>464</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -10235,7 +10234,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10245,13 +10244,13 @@
         <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>383</v>
@@ -10265,26 +10264,26 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>477</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
         <v>196</v>
@@ -10294,19 +10293,19 @@
         <v>467</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>382</v>
@@ -10318,13 +10317,13 @@
         <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>368</v>
@@ -10333,7 +10332,7 @@
         <v>390</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
@@ -10342,23 +10341,23 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>231</v>
@@ -10374,68 +10373,68 @@
         <v>469</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>396</v>
@@ -10444,7 +10443,7 @@
         <v>397</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77">
@@ -10453,23 +10452,23 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>457</v>
@@ -10483,77 +10482,77 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>398</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78">
@@ -10562,23 +10561,23 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>383</v>
@@ -10596,26 +10595,26 @@
         <v>482</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
         <v>110</v>
@@ -10627,31 +10626,31 @@
         <v>112</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
         <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>98</v>
@@ -10666,7 +10665,7 @@
         <v>485</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
